--- a/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL TC MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL TC MIS.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66937</v>
+        <v>76668</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50419</v>
+        <v>109655</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1%</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>170945</v>
+        <v>257687</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2%</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32800</v>
+        <v>39800</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL TC MIS.xlsx
+++ b/media/BAJAJ-PL/MIS/MAR 22/BAJAJ-PL TC MIS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76668</v>
+        <v>3662</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -493,11 +493,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RUKHSAR KHAN</t>
+          <t>VIJAY KHANNA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109655</v>
+        <v>17910</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -506,23 +506,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LESS THAN DEMAND</t>
+          <t>MORE THAN DEMAND</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIJAY KHANNA</t>
+          <t>RUKHSAR KHAN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>257687</v>
+        <v>16000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -530,81 +530,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MORE THAN DEMAND</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NEELU MALIK</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>80782</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MORE THAN DEMAND</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RUKHSAR KHAN</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39800</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MORE THAN DEMAND</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>VIJAY KHANNA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>149995</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
